--- a/data/trans_orig/Q57-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7758B5-8360-4328-87D1-03F379E6994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7D7022-433B-4B70-B9C1-46E9FE2DB0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4580B51-64B8-490F-900C-D9BC2498AA53}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50AB29C8-703F-4ABE-A9AE-4BBD94229619}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="584">
   <si>
     <t>Población según la autopercepción de felicidad en 2015 (Tasa respuesta: 99,57%)</t>
   </si>
@@ -72,1771 +72,1723 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la autopercepción de felicidad en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la autopercepción de felicidad en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
     <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74CE1A3-F1AF-43D0-BFD0-146ED3A1579A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF89E18-7918-4416-A08A-966EA4CED87E}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2459,7 +2411,7 @@
         <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2426,13 @@
         <v>191492</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>206</v>
@@ -2489,13 +2441,13 @@
         <v>227841</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>397</v>
@@ -2504,13 +2456,13 @@
         <v>419333</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2477,13 @@
         <v>155869</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>178</v>
@@ -2540,13 +2492,13 @@
         <v>198192</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>333</v>
@@ -2555,13 +2507,13 @@
         <v>354061</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2528,13 @@
         <v>103225</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -2591,13 +2543,13 @@
         <v>142637</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>235</v>
@@ -2606,13 +2558,13 @@
         <v>245862</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2579,13 @@
         <v>77459</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>125</v>
@@ -2642,13 +2594,13 @@
         <v>140816</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>205</v>
@@ -2660,10 +2612,10 @@
         <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2630,13 @@
         <v>23156</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2693,13 +2645,13 @@
         <v>40631</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -2708,13 +2660,13 @@
         <v>63788</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2681,13 @@
         <v>14146</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2744,13 +2696,13 @@
         <v>22024</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -2759,13 +2711,13 @@
         <v>36170</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2732,13 @@
         <v>8493</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -2795,13 +2747,13 @@
         <v>27744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -2810,13 +2762,13 @@
         <v>36236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2783,13 @@
         <v>1066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2846,13 +2798,13 @@
         <v>4365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2861,13 +2813,13 @@
         <v>5431</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2897,13 +2849,13 @@
         <v>8409</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2912,13 +2864,13 @@
         <v>8409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2885,13 @@
         <v>752232</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>889</v>
@@ -2948,13 +2900,13 @@
         <v>990979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>1649</v>
@@ -2963,18 +2915,18 @@
         <v>1743211</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2986,13 +2938,13 @@
         <v>205062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -3001,13 +2953,13 @@
         <v>188511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>376</v>
@@ -3016,13 +2968,13 @@
         <v>393573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +2989,13 @@
         <v>431158</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -3052,13 +3004,13 @@
         <v>373265</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>774</v>
@@ -3067,13 +3019,13 @@
         <v>804424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3040,13 @@
         <v>679498</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>592</v>
@@ -3103,13 +3055,13 @@
         <v>605857</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>1235</v>
@@ -3118,13 +3070,13 @@
         <v>1285354</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3091,13 @@
         <v>416640</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>403</v>
@@ -3154,13 +3106,13 @@
         <v>424011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>796</v>
@@ -3169,13 +3121,13 @@
         <v>840651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3142,13 @@
         <v>173023</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -3205,13 +3157,13 @@
         <v>203492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>344</v>
@@ -3220,13 +3172,13 @@
         <v>376515</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3193,13 @@
         <v>115375</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -3256,13 +3208,13 @@
         <v>128791</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3271,13 +3223,13 @@
         <v>244166</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3244,13 @@
         <v>18006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -3307,13 +3259,13 @@
         <v>28313</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -3322,13 +3274,13 @@
         <v>46320</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3295,13 @@
         <v>10557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3358,13 +3310,13 @@
         <v>17077</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3373,13 +3325,13 @@
         <v>27634</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3346,13 @@
         <v>7743</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3409,13 +3361,13 @@
         <v>6461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3424,13 +3376,13 @@
         <v>14204</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3397,13 @@
         <v>5930</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3460,13 +3412,13 @@
         <v>1022</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3475,13 +3427,13 @@
         <v>6952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3448,13 @@
         <v>3843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3511,13 +3463,13 @@
         <v>1958</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3526,13 +3478,13 @@
         <v>5801</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3499,13 @@
         <v>2066834</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H27" s="7">
         <v>1899</v>
@@ -3562,13 +3514,13 @@
         <v>1978757</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M27" s="7">
         <v>3842</v>
@@ -3577,18 +3529,18 @@
         <v>4045592</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3600,13 +3552,13 @@
         <v>65172</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -3615,13 +3567,13 @@
         <v>62726</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>119</v>
@@ -3630,13 +3582,13 @@
         <v>127898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3603,13 @@
         <v>144591</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -3666,13 +3618,13 @@
         <v>124904</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>254</v>
@@ -3681,13 +3633,13 @@
         <v>269495</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3654,13 @@
         <v>179197</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>182</v>
@@ -3717,13 +3669,13 @@
         <v>188421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>346</v>
@@ -3732,13 +3684,13 @@
         <v>367618</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3705,13 @@
         <v>94763</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>114</v>
@@ -3768,13 +3720,13 @@
         <v>120226</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>202</v>
@@ -3783,13 +3735,13 @@
         <v>214989</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3756,13 @@
         <v>43401</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3819,13 +3771,13 @@
         <v>25958</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>63</v>
@@ -3834,13 +3786,13 @@
         <v>69359</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3807,13 @@
         <v>11998</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H33" s="7">
         <v>17</v>
@@ -3870,13 +3822,13 @@
         <v>19779</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -3885,13 +3837,13 @@
         <v>31777</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>239</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3858,13 @@
         <v>3003</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3921,13 +3873,13 @@
         <v>2988</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -3936,13 +3888,13 @@
         <v>5991</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3909,13 @@
         <v>1917</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3972,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -3987,13 +3939,13 @@
         <v>1917</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +3960,13 @@
         <v>891</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4023,13 +3975,13 @@
         <v>924</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -4038,13 +3990,13 @@
         <v>1816</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4074,13 +4026,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4089,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4125,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -4140,13 +4092,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4113,13 @@
         <v>544934</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H39" s="7">
         <v>523</v>
@@ -4176,13 +4128,13 @@
         <v>545926</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M39" s="7">
         <v>1022</v>
@@ -4191,13 +4143,13 @@
         <v>1090860</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4166,13 @@
         <v>340929</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H40" s="7">
         <v>308</v>
@@ -4229,13 +4181,13 @@
         <v>317898</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M40" s="7">
         <v>627</v>
@@ -4244,13 +4196,13 @@
         <v>658827</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4217,13 @@
         <v>682381</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H41" s="7">
         <v>588</v>
@@ -4280,13 +4232,13 @@
         <v>609829</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="M41" s="7">
         <v>1236</v>
@@ -4295,13 +4247,13 @@
         <v>1292210</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4268,13 @@
         <v>1050187</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H42" s="7">
         <v>980</v>
@@ -4331,13 +4283,13 @@
         <v>1022118</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="M42" s="7">
         <v>1978</v>
@@ -4346,13 +4298,13 @@
         <v>2072305</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4319,13 @@
         <v>667272</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H43" s="7">
         <v>695</v>
@@ -4382,13 +4334,13 @@
         <v>742428</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="M43" s="7">
         <v>1331</v>
@@ -4397,13 +4349,13 @@
         <v>1409701</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4370,13 @@
         <v>319649</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H44" s="7">
         <v>337</v>
@@ -4433,13 +4385,13 @@
         <v>372086</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M44" s="7">
         <v>642</v>
@@ -4448,13 +4400,13 @@
         <v>691736</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4421,13 @@
         <v>204831</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H45" s="7">
         <v>258</v>
@@ -4484,13 +4436,13 @@
         <v>289386</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M45" s="7">
         <v>456</v>
@@ -4499,13 +4451,13 @@
         <v>494217</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4472,13 @@
         <v>44166</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>307</v>
+        <v>160</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H46" s="7">
         <v>66</v>
@@ -4535,13 +4487,13 @@
         <v>71932</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M46" s="7">
         <v>110</v>
@@ -4550,13 +4502,13 @@
         <v>116098</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4523,13 @@
         <v>26619</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>317</v>
+        <v>71</v>
       </c>
       <c r="H47" s="7">
         <v>34</v>
@@ -4586,13 +4538,13 @@
         <v>39101</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>319</v>
+        <v>176</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="M47" s="7">
         <v>61</v>
@@ -4601,13 +4553,13 @@
         <v>65721</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4574,13 @@
         <v>17127</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -4637,13 +4589,13 @@
         <v>35129</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>324</v>
+        <v>171</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="M48" s="7">
         <v>48</v>
@@ -4652,13 +4604,13 @@
         <v>52256</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>325</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4625,13 @@
         <v>6996</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>92</v>
+        <v>316</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -4688,13 +4640,13 @@
         <v>5387</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M49" s="7">
         <v>11</v>
@@ -4703,13 +4655,13 @@
         <v>12382</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4676,13 @@
         <v>3843</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="H50" s="7">
         <v>9</v>
@@ -4739,13 +4691,13 @@
         <v>10367</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="M50" s="7">
         <v>13</v>
@@ -4754,13 +4706,13 @@
         <v>14209</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>181</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4727,13 @@
         <v>3364000</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H51" s="7">
         <v>3311</v>
@@ -4790,13 +4742,13 @@
         <v>3515662</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M51" s="7">
         <v>6513</v>
@@ -4805,18 +4757,18 @@
         <v>6879662</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4835,7 +4787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6330EC65-CB4B-4EFA-A335-52F8873B8052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B645C912-BBF3-4D39-A33C-022F661F8D07}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4852,7 +4804,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4959,13 +4911,13 @@
         <v>81353</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>144</v>
@@ -4974,13 +4926,13 @@
         <v>100045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>243</v>
@@ -4989,13 +4941,13 @@
         <v>181397</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +4962,13 @@
         <v>96037</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>205</v>
@@ -5025,13 +4977,13 @@
         <v>120758</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>314</v>
@@ -5040,13 +4992,13 @@
         <v>216795</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5013,13 @@
         <v>117883</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H6" s="7">
         <v>314</v>
@@ -5076,13 +5028,13 @@
         <v>175609</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>115</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>469</v>
@@ -5091,13 +5043,13 @@
         <v>293492</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5064,13 @@
         <v>78428</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -5127,13 +5079,13 @@
         <v>121120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>314</v>
@@ -5142,13 +5094,13 @@
         <v>199549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5115,13 @@
         <v>59398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>142</v>
@@ -5178,13 +5130,13 @@
         <v>81392</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>222</v>
@@ -5193,13 +5145,13 @@
         <v>140790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5166,13 @@
         <v>51575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>377</v>
+        <v>143</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H9" s="7">
         <v>200</v>
@@ -5229,13 +5181,13 @@
         <v>115215</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>379</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="M9" s="7">
         <v>276</v>
@@ -5244,13 +5196,13 @@
         <v>166790</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>232</v>
+        <v>369</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5217,13 @@
         <v>23876</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -5280,13 +5232,13 @@
         <v>49937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -5295,13 +5247,13 @@
         <v>73813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5268,13 @@
         <v>8296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -5331,13 +5283,13 @@
         <v>34534</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>394</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -5346,13 +5298,13 @@
         <v>42829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5319,13 @@
         <v>6549</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>401</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -5382,13 +5334,13 @@
         <v>13052</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>175</v>
+        <v>389</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -5397,13 +5349,13 @@
         <v>19602</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5370,13 @@
         <v>3788</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5433,13 +5385,13 @@
         <v>4318</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>408</v>
+        <v>305</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5448,13 +5400,13 @@
         <v>8106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5421,13 @@
         <v>6221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5484,13 +5436,13 @@
         <v>6432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -5499,13 +5451,13 @@
         <v>12653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>413</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5472,13 @@
         <v>533404</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>1402</v>
@@ -5535,13 +5487,13 @@
         <v>822412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>2083</v>
@@ -5550,18 +5502,18 @@
         <v>1355816</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -5573,13 +5525,13 @@
         <v>503043</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>521</v>
@@ -5588,13 +5540,13 @@
         <v>411302</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>934</v>
@@ -5603,13 +5555,13 @@
         <v>914344</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5576,13 @@
         <v>596762</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>712</v>
@@ -5639,13 +5591,13 @@
         <v>561902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>1203</v>
@@ -5654,13 +5606,13 @@
         <v>1158664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5627,13 @@
         <v>577108</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>432</v>
+        <v>33</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>905</v>
@@ -5690,13 +5642,13 @@
         <v>632179</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
         <v>1471</v>
@@ -5705,13 +5657,13 @@
         <v>1209287</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5678,13 @@
         <v>241162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>427</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="H19" s="7">
         <v>368</v>
@@ -5741,13 +5693,13 @@
         <v>361821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M19" s="7">
         <v>616</v>
@@ -5756,13 +5708,13 @@
         <v>602983</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>445</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5729,13 @@
         <v>97546</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>448</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -5792,13 +5744,13 @@
         <v>117721</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>285</v>
@@ -5807,13 +5759,13 @@
         <v>215267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5780,13 @@
         <v>76572</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="H21" s="7">
         <v>118</v>
@@ -5843,13 +5795,13 @@
         <v>76945</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="M21" s="7">
         <v>212</v>
@@ -5858,13 +5810,13 @@
         <v>153517</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5831,13 @@
         <v>29917</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>449</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -5894,13 +5846,13 @@
         <v>38525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -5909,13 +5861,13 @@
         <v>68443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>469</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>470</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5882,13 @@
         <v>16102</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>178</v>
+        <v>455</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -5945,13 +5897,13 @@
         <v>25714</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>471</v>
+        <v>233</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -5960,13 +5912,13 @@
         <v>41816</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>473</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>324</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5933,13 @@
         <v>15650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>475</v>
+        <v>88</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>92</v>
+        <v>460</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -5996,13 +5948,13 @@
         <v>8524</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>250</v>
+        <v>462</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -6011,13 +5963,13 @@
         <v>24174</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +5984,13 @@
         <v>5153</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>464</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6047,13 +5999,13 @@
         <v>4041</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>466</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -6062,13 +6014,13 @@
         <v>9194</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6035,13 @@
         <v>895</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -6098,13 +6050,13 @@
         <v>3585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -6113,13 +6065,13 @@
         <v>4480</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6086,13 @@
         <v>2159910</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H27" s="7">
         <v>2911</v>
@@ -6149,33 +6101,33 @@
         <v>2242258</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M27" s="7">
         <v>4901</v>
       </c>
       <c r="N27" s="7">
-        <v>4402168</v>
+        <v>4402167</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -6187,13 +6139,13 @@
         <v>134098</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>482</v>
+        <v>403</v>
       </c>
       <c r="H28" s="7">
         <v>160</v>
@@ -6202,13 +6154,13 @@
         <v>123532</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>484</v>
+        <v>334</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>280</v>
@@ -6217,13 +6169,13 @@
         <v>257631</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>486</v>
+        <v>259</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6190,13 @@
         <v>185941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>273</v>
@@ -6253,13 +6205,13 @@
         <v>202640</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>454</v>
@@ -6268,13 +6220,13 @@
         <v>388580</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6241,13 @@
         <v>216389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="H30" s="7">
         <v>370</v>
@@ -6304,13 +6256,13 @@
         <v>243094</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>281</v>
+        <v>488</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="M30" s="7">
         <v>608</v>
@@ -6319,13 +6271,13 @@
         <v>459483</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6292,13 @@
         <v>75477</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="H31" s="7">
         <v>111</v>
@@ -6355,13 +6307,13 @@
         <v>81816</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>511</v>
+        <v>366</v>
       </c>
       <c r="M31" s="7">
         <v>188</v>
@@ -6370,13 +6322,13 @@
         <v>157294</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6343,13 @@
         <v>33216</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -6406,13 +6358,13 @@
         <v>26906</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -6421,13 +6373,13 @@
         <v>60122</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6394,13 @@
         <v>15706</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -6457,13 +6409,13 @@
         <v>18291</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="M33" s="7">
         <v>44</v>
@@ -6472,13 +6424,13 @@
         <v>33997</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6445,13 @@
         <v>3979</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>531</v>
+        <v>378</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -6508,13 +6460,13 @@
         <v>7299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>533</v>
+        <v>159</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
@@ -6523,13 +6475,13 @@
         <v>11278</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>535</v>
+        <v>165</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>174</v>
+        <v>521</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>163</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6496,13 @@
         <v>2273</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>536</v>
+        <v>321</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -6559,13 +6511,13 @@
         <v>5322</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>178</v>
+        <v>455</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -6574,13 +6526,13 @@
         <v>7595</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>184</v>
+        <v>525</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>105</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6595,13 +6547,13 @@
         <v>2581</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>90</v>
+        <v>465</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6610,13 +6562,13 @@
         <v>662</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>538</v>
+        <v>179</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -6625,13 +6577,13 @@
         <v>3243</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>187</v>
+        <v>320</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6598,13 @@
         <v>1206</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6661,13 +6613,13 @@
         <v>2023</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>330</v>
+        <v>525</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>540</v>
+        <v>312</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -6676,13 +6628,13 @@
         <v>3229</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>541</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6649,13 @@
         <v>1462</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>542</v>
+        <v>396</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>248</v>
+        <v>449</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6712,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -6727,13 +6679,13 @@
         <v>1462</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6700,13 @@
         <v>672328</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H39" s="7">
         <v>1001</v>
@@ -6763,13 +6715,13 @@
         <v>711585</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M39" s="7">
         <v>1681</v>
@@ -6778,13 +6730,13 @@
         <v>1383913</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6753,13 @@
         <v>718494</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>543</v>
+        <v>220</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="H40" s="7">
         <v>825</v>
@@ -6816,13 +6768,13 @@
         <v>634879</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>547</v>
+        <v>326</v>
       </c>
       <c r="M40" s="7">
         <v>1457</v>
@@ -6831,13 +6783,13 @@
         <v>1353372</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>548</v>
+        <v>255</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,13 +6804,13 @@
         <v>878740</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="H41" s="7">
         <v>1190</v>
@@ -6867,13 +6819,13 @@
         <v>885299</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="M41" s="7">
         <v>1971</v>
@@ -6882,13 +6834,13 @@
         <v>1764039</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,13 +6855,13 @@
         <v>911379</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="H42" s="7">
         <v>1589</v>
@@ -6918,13 +6870,13 @@
         <v>1050883</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="M42" s="7">
         <v>2548</v>
@@ -6933,13 +6885,13 @@
         <v>1962262</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,13 +6906,13 @@
         <v>395068</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>294</v>
+        <v>551</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="H43" s="7">
         <v>693</v>
@@ -6969,13 +6921,13 @@
         <v>564757</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="M43" s="7">
         <v>1118</v>
@@ -6984,13 +6936,13 @@
         <v>959825</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>574</v>
+        <v>331</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +6957,13 @@
         <v>190160</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>575</v>
+        <v>66</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>514</v>
+        <v>559</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="H44" s="7">
         <v>358</v>
@@ -7020,13 +6972,13 @@
         <v>226018</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>14</v>
+        <v>562</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>13</v>
+        <v>563</v>
       </c>
       <c r="M44" s="7">
         <v>580</v>
@@ -7035,13 +6987,13 @@
         <v>416178</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>450</v>
+        <v>565</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>236</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7008,13 @@
         <v>143853</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>388</v>
+        <v>568</v>
       </c>
       <c r="H45" s="7">
         <v>342</v>
@@ -7071,13 +7023,13 @@
         <v>210451</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>581</v>
+        <v>226</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="M45" s="7">
         <v>532</v>
@@ -7086,13 +7038,13 @@
         <v>354304</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7059,13 @@
         <v>57772</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>585</v>
+        <v>387</v>
       </c>
       <c r="H46" s="7">
         <v>150</v>
@@ -7122,13 +7074,13 @@
         <v>95762</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>587</v>
+        <v>76</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>385</v>
+        <v>574</v>
       </c>
       <c r="M46" s="7">
         <v>212</v>
@@ -7137,13 +7089,13 @@
         <v>153534</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>589</v>
+        <v>70</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>528</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7110,13 @@
         <v>26671</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>471</v>
+        <v>306</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
@@ -7173,13 +7125,13 @@
         <v>65569</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>591</v>
+        <v>303</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="M47" s="7">
         <v>131</v>
@@ -7188,13 +7140,13 @@
         <v>92240</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>162</v>
+        <v>579</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>72</v>
+        <v>580</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>468</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7161,13 @@
         <v>24780</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>593</v>
+        <v>182</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>318</v>
+        <v>580</v>
       </c>
       <c r="H48" s="7">
         <v>33</v>
@@ -7224,13 +7176,13 @@
         <v>22238</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>594</v>
+        <v>468</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M48" s="7">
         <v>63</v>
@@ -7239,13 +7191,13 @@
         <v>47018</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>538</v>
+        <v>159</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7212,13 @@
         <v>10148</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>596</v>
+        <v>402</v>
       </c>
       <c r="H49" s="7">
         <v>18</v>
@@ -7275,13 +7227,13 @@
         <v>10382</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>598</v>
+        <v>89</v>
       </c>
       <c r="M49" s="7">
         <v>29</v>
@@ -7290,13 +7242,13 @@
         <v>20529</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>599</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,13 +7263,13 @@
         <v>8578</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>408</v>
+        <v>159</v>
       </c>
       <c r="H50" s="7">
         <v>16</v>
@@ -7326,13 +7278,13 @@
         <v>10017</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>92</v>
+        <v>399</v>
       </c>
       <c r="M50" s="7">
         <v>24</v>
@@ -7341,13 +7293,13 @@
         <v>18595</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7314,13 @@
         <v>3365642</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H51" s="7">
         <v>5314</v>
@@ -7377,13 +7329,13 @@
         <v>3776254</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M51" s="7">
         <v>8665</v>
@@ -7392,18 +7344,18 @@
         <v>7141896</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q57-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7D7022-433B-4B70-B9C1-46E9FE2DB0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B4D069-38C6-4CFF-B4E8-792128AEF93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{50AB29C8-703F-4ABE-A9AE-4BBD94229619}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FE37485-E592-4376-BA0D-17D3BB5A3420}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="584">
   <si>
-    <t>Población según la autopercepción de felicidad en 2015 (Tasa respuesta: 99,57%)</t>
+    <t>Población según la autopercepción de felicidad en 2016 (Tasa respuesta: 99,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -72,28 +72,28 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>14,18%</t>
@@ -102,1693 +102,1693 @@
     <t>11,95%</t>
   </si>
   <si>
-    <t>17,05%</t>
+    <t>17,01%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>10,94%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>25,46%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la autopercepción de felicidad en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la autopercepción de felicidad en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +2200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF89E18-7918-4416-A08A-966EA4CED87E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F2A8B-220E-4519-94D3-9EE7791E681E}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2411,7 +2411,7 @@
         <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,13 +2426,13 @@
         <v>191492</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>206</v>
@@ -2441,13 +2441,13 @@
         <v>227841</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>397</v>
@@ -2456,13 +2456,13 @@
         <v>419333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2477,13 @@
         <v>155869</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>178</v>
@@ -2492,13 +2492,13 @@
         <v>198192</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>333</v>
@@ -2507,13 +2507,13 @@
         <v>354061</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2528,13 @@
         <v>103225</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -2543,13 +2543,13 @@
         <v>142637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>235</v>
@@ -2558,13 +2558,13 @@
         <v>245862</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2579,13 @@
         <v>77459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>125</v>
@@ -2594,13 +2594,13 @@
         <v>140816</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>205</v>
@@ -2612,10 +2612,10 @@
         <v>25</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2630,13 @@
         <v>23156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2645,13 +2645,13 @@
         <v>40631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -2660,13 +2660,13 @@
         <v>63788</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2681,13 @@
         <v>14146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2696,13 +2696,13 @@
         <v>22024</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -2711,13 +2711,13 @@
         <v>36170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2732,13 @@
         <v>8493</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -2747,13 +2747,13 @@
         <v>27744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -2762,13 +2762,13 @@
         <v>36236</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2783,13 @@
         <v>1066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2798,13 +2798,13 @@
         <v>4365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2813,13 +2813,13 @@
         <v>5431</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2849,13 +2849,13 @@
         <v>8409</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2864,13 +2864,13 @@
         <v>8409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2885,13 @@
         <v>752232</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>889</v>
@@ -2900,13 +2900,13 @@
         <v>990979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>1649</v>
@@ -2915,18 +2915,18 @@
         <v>1743211</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2938,13 +2938,13 @@
         <v>205062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -2953,13 +2953,13 @@
         <v>188511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>376</v>
@@ -2968,13 +2968,13 @@
         <v>393573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2989,13 @@
         <v>431158</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>365</v>
@@ -3004,13 +3004,13 @@
         <v>373265</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>774</v>
@@ -3019,13 +3019,13 @@
         <v>804424</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3040,13 @@
         <v>679498</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>592</v>
@@ -3055,13 +3055,13 @@
         <v>605857</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>1235</v>
@@ -3070,13 +3070,13 @@
         <v>1285354</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>416640</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>403</v>
@@ -3106,13 +3106,13 @@
         <v>424011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>796</v>
@@ -3121,13 +3121,13 @@
         <v>840651</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3142,13 @@
         <v>173023</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>187</v>
@@ -3157,13 +3157,13 @@
         <v>203492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>344</v>
@@ -3178,7 +3178,7 @@
         <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3193,13 @@
         <v>115375</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -3208,13 +3208,13 @@
         <v>128791</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3223,13 +3223,13 @@
         <v>244166</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3244,13 @@
         <v>18006</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -3259,13 +3259,13 @@
         <v>28313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -3295,13 +3295,13 @@
         <v>10557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3310,13 +3310,13 @@
         <v>17077</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3325,13 +3325,13 @@
         <v>27634</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3346,13 @@
         <v>7743</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3361,13 +3361,13 @@
         <v>6461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -3376,13 +3376,13 @@
         <v>14204</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3397,13 @@
         <v>5930</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3412,13 +3412,13 @@
         <v>1022</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3427,13 +3427,13 @@
         <v>6952</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3448,13 @@
         <v>3843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3463,10 +3463,10 @@
         <v>1958</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>186</v>
@@ -3478,13 +3478,13 @@
         <v>5801</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3499,13 @@
         <v>2066834</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H27" s="7">
         <v>1899</v>
@@ -3514,13 +3514,13 @@
         <v>1978757</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M27" s="7">
         <v>3842</v>
@@ -3529,18 +3529,18 @@
         <v>4045592</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3552,13 +3552,13 @@
         <v>65172</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -3567,13 +3567,13 @@
         <v>62726</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>119</v>
@@ -3582,13 +3582,13 @@
         <v>127898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3603,13 @@
         <v>144591</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -3618,13 +3618,13 @@
         <v>124904</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>254</v>
@@ -3633,13 +3633,13 @@
         <v>269495</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3654,13 @@
         <v>179197</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>182</v>
@@ -3669,13 +3669,13 @@
         <v>188421</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>346</v>
@@ -3684,13 +3684,13 @@
         <v>367618</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3705,13 @@
         <v>94763</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>114</v>
@@ -3720,13 +3720,13 @@
         <v>120226</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>202</v>
@@ -3735,13 +3735,13 @@
         <v>214989</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3756,13 @@
         <v>43401</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -3771,13 +3771,13 @@
         <v>25958</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>63</v>
@@ -3786,13 +3786,13 @@
         <v>69359</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3807,13 @@
         <v>11998</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H33" s="7">
         <v>17</v>
@@ -3822,13 +3822,13 @@
         <v>19779</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M33" s="7">
         <v>28</v>
@@ -3837,13 +3837,13 @@
         <v>31777</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3858,13 @@
         <v>3003</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3873,13 +3873,13 @@
         <v>2988</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -3888,13 +3888,13 @@
         <v>5991</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3909,13 @@
         <v>1917</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3924,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -3939,13 +3939,13 @@
         <v>1917</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>891</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>244</v>
@@ -3975,13 +3975,13 @@
         <v>924</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3990,13 +3990,13 @@
         <v>1816</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4026,13 +4026,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4041,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4062,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4077,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -4092,13 +4092,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4113,13 @@
         <v>544934</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H39" s="7">
         <v>523</v>
@@ -4128,13 +4128,13 @@
         <v>545926</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M39" s="7">
         <v>1022</v>
@@ -4143,13 +4143,13 @@
         <v>1090860</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4166,13 @@
         <v>340929</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H40" s="7">
         <v>308</v>
@@ -4181,13 +4181,13 @@
         <v>317898</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M40" s="7">
         <v>627</v>
@@ -4196,13 +4196,13 @@
         <v>658827</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4217,13 @@
         <v>682381</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H41" s="7">
         <v>588</v>
@@ -4232,13 +4232,13 @@
         <v>609829</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M41" s="7">
         <v>1236</v>
@@ -4247,13 +4247,13 @@
         <v>1292210</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4268,13 @@
         <v>1050187</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H42" s="7">
         <v>980</v>
@@ -4283,13 +4283,13 @@
         <v>1022118</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>1978</v>
@@ -4298,13 +4298,13 @@
         <v>2072305</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4319,13 @@
         <v>667272</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H43" s="7">
         <v>695</v>
@@ -4334,13 +4334,13 @@
         <v>742428</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>1331</v>
@@ -4349,13 +4349,13 @@
         <v>1409701</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4370,13 @@
         <v>319649</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H44" s="7">
         <v>337</v>
@@ -4385,13 +4385,13 @@
         <v>372086</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="M44" s="7">
         <v>642</v>
@@ -4400,13 +4400,13 @@
         <v>691736</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4421,13 @@
         <v>204831</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H45" s="7">
         <v>258</v>
@@ -4436,7 +4436,7 @@
         <v>289386</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>293</v>
@@ -4454,10 +4454,10 @@
         <v>295</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4472,13 @@
         <v>44166</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H46" s="7">
         <v>66</v>
@@ -4487,13 +4487,13 @@
         <v>71932</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M46" s="7">
         <v>110</v>
@@ -4502,13 +4502,13 @@
         <v>116098</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4523,13 @@
         <v>26619</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="H47" s="7">
         <v>34</v>
@@ -4538,13 +4538,13 @@
         <v>39101</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M47" s="7">
         <v>61</v>
@@ -4553,13 +4553,13 @@
         <v>65721</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4574,13 @@
         <v>17127</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>165</v>
+        <v>313</v>
       </c>
       <c r="H48" s="7">
         <v>31</v>
@@ -4589,13 +4589,13 @@
         <v>35129</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M48" s="7">
         <v>48</v>
@@ -4604,13 +4604,13 @@
         <v>52256</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4625,13 @@
         <v>6996</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="H49" s="7">
         <v>5</v>
@@ -4640,13 +4640,13 @@
         <v>5387</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="M49" s="7">
         <v>11</v>
@@ -4655,13 +4655,13 @@
         <v>12382</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4676,13 @@
         <v>3843</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>319</v>
+        <v>93</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="H50" s="7">
         <v>9</v>
@@ -4691,13 +4691,13 @@
         <v>10367</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>86</v>
+        <v>318</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="M50" s="7">
         <v>13</v>
@@ -4706,13 +4706,13 @@
         <v>14209</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>321</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4727,13 @@
         <v>3364000</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H51" s="7">
         <v>3311</v>
@@ -4742,33 +4742,33 @@
         <v>3515662</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M51" s="7">
         <v>6513</v>
       </c>
       <c r="N51" s="7">
-        <v>6879662</v>
+        <v>6879663</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4787,7 +4787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B645C912-BBF3-4D39-A33C-022F661F8D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B931A3DF-FCC8-42F7-9533-57FEEBD61FF7}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4804,7 +4804,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4911,13 +4911,13 @@
         <v>81353</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>144</v>
@@ -4926,13 +4926,13 @@
         <v>100045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>243</v>
@@ -4941,13 +4941,13 @@
         <v>181397</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4962,13 @@
         <v>96037</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>205</v>
@@ -4977,13 +4977,13 @@
         <v>120758</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>314</v>
@@ -4992,13 +4992,13 @@
         <v>216795</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5013,13 @@
         <v>117883</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H6" s="7">
         <v>314</v>
@@ -5028,13 +5028,13 @@
         <v>175609</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M6" s="7">
         <v>469</v>
@@ -5043,13 +5043,13 @@
         <v>293492</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5064,13 @@
         <v>78428</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -5079,13 +5079,13 @@
         <v>121120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>314</v>
@@ -5094,13 +5094,13 @@
         <v>199549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5115,13 @@
         <v>59398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>142</v>
@@ -5130,13 +5130,13 @@
         <v>81392</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>222</v>
@@ -5145,13 +5145,13 @@
         <v>140790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5166,13 @@
         <v>51575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>143</v>
+        <v>370</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>200</v>
@@ -5181,13 +5181,13 @@
         <v>115215</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M9" s="7">
         <v>276</v>
@@ -5196,13 +5196,13 @@
         <v>166790</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5217,13 @@
         <v>23876</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -5232,13 +5232,13 @@
         <v>49937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -5247,13 +5247,13 @@
         <v>73813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5268,13 @@
         <v>8296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -5283,13 +5283,13 @@
         <v>34534</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -5298,13 +5298,13 @@
         <v>42829</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5319,13 @@
         <v>6549</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>243</v>
+        <v>396</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -5334,13 +5334,13 @@
         <v>13052</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>240</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>389</v>
+        <v>167</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -5349,13 +5349,13 @@
         <v>19602</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5370,13 @@
         <v>3788</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5385,13 +5385,13 @@
         <v>4318</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>404</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -5400,13 +5400,13 @@
         <v>8106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5421,13 @@
         <v>6221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5436,13 +5436,13 @@
         <v>6432</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -5451,13 +5451,13 @@
         <v>12653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5472,13 @@
         <v>533404</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>1402</v>
@@ -5487,13 +5487,13 @@
         <v>822412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>2083</v>
@@ -5502,18 +5502,18 @@
         <v>1355816</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -5525,13 +5525,13 @@
         <v>503043</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>521</v>
@@ -5540,13 +5540,13 @@
         <v>411302</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>934</v>
@@ -5555,13 +5555,13 @@
         <v>914344</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5576,13 @@
         <v>596762</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>712</v>
@@ -5591,13 +5591,13 @@
         <v>561902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>1203</v>
@@ -5606,13 +5606,13 @@
         <v>1158664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5627,13 @@
         <v>577108</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="H18" s="7">
         <v>905</v>
@@ -5642,13 +5642,13 @@
         <v>632179</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>1471</v>
@@ -5657,13 +5657,13 @@
         <v>1209287</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5678,13 @@
         <v>241162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>436</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="H19" s="7">
         <v>368</v>
@@ -5693,13 +5693,13 @@
         <v>361821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
         <v>616</v>
@@ -5708,13 +5708,13 @@
         <v>602983</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5729,13 @@
         <v>97546</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -5744,13 +5744,13 @@
         <v>117721</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>285</v>
@@ -5759,13 +5759,13 @@
         <v>215267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5780,13 @@
         <v>76572</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="H21" s="7">
         <v>118</v>
@@ -5795,13 +5795,13 @@
         <v>76945</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>445</v>
+        <v>238</v>
       </c>
       <c r="M21" s="7">
         <v>212</v>
@@ -5810,13 +5810,13 @@
         <v>153517</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5831,13 @@
         <v>29917</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -5846,13 +5846,13 @@
         <v>38525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -5861,13 +5861,13 @@
         <v>68443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>310</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5882,13 @@
         <v>16102</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>455</v>
+        <v>311</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>456</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -5897,13 +5897,13 @@
         <v>25714</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>233</v>
+        <v>404</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>455</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>457</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -5912,13 +5912,13 @@
         <v>41816</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>465</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5933,13 @@
         <v>15650</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>88</v>
+        <v>468</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -5948,13 +5948,13 @@
         <v>8524</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>462</v>
+        <v>103</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>463</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -5963,13 +5963,13 @@
         <v>24174</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5984,13 @@
         <v>5153</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -5999,13 +5999,13 @@
         <v>4041</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>466</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -6014,13 +6014,13 @@
         <v>9194</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6035,13 @@
         <v>895</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -6050,13 +6050,13 @@
         <v>3585</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -6065,13 +6065,13 @@
         <v>4480</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6086,13 @@
         <v>2159910</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H27" s="7">
         <v>2911</v>
@@ -6101,13 +6101,13 @@
         <v>2242258</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M27" s="7">
         <v>4901</v>
@@ -6116,18 +6116,18 @@
         <v>4402167</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -6139,13 +6139,13 @@
         <v>134098</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7">
         <v>160</v>
@@ -6154,13 +6154,13 @@
         <v>123532</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="M28" s="7">
         <v>280</v>
@@ -6169,13 +6169,13 @@
         <v>257631</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>259</v>
+        <v>481</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6190,13 @@
         <v>185941</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H29" s="7">
         <v>273</v>
@@ -6205,13 +6205,13 @@
         <v>202640</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M29" s="7">
         <v>454</v>
@@ -6220,13 +6220,13 @@
         <v>388580</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6241,13 @@
         <v>216389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H30" s="7">
         <v>370</v>
@@ -6256,13 +6256,13 @@
         <v>243094</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M30" s="7">
         <v>608</v>
@@ -6271,13 +6271,13 @@
         <v>459483</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>491</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6292,13 @@
         <v>75477</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H31" s="7">
         <v>111</v>
@@ -6307,13 +6307,13 @@
         <v>81816</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M31" s="7">
         <v>188</v>
@@ -6322,13 +6322,13 @@
         <v>157294</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6343,13 @@
         <v>33216</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -6358,13 +6358,13 @@
         <v>26906</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="M32" s="7">
         <v>73</v>
@@ -6373,13 +6373,13 @@
         <v>60122</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>509</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6394,13 @@
         <v>15706</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>512</v>
+        <v>232</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -6409,13 +6409,13 @@
         <v>18291</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M33" s="7">
         <v>44</v>
@@ -6424,13 +6424,13 @@
         <v>33997</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6445,13 @@
         <v>3979</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -6460,13 +6460,13 @@
         <v>7299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>520</v>
+        <v>64</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
@@ -6475,13 +6475,13 @@
         <v>11278</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>165</v>
+        <v>471</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6496,13 @@
         <v>2273</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -6511,13 +6511,13 @@
         <v>5322</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>455</v>
+        <v>311</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>524</v>
+        <v>161</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -6526,13 +6526,13 @@
         <v>7595</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>526</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6547,13 @@
         <v>2581</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6562,13 +6562,13 @@
         <v>662</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -6577,13 +6577,13 @@
         <v>3243</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,13 +6598,13 @@
         <v>1206</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -6613,13 +6613,13 @@
         <v>2023</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -6628,13 +6628,13 @@
         <v>3229</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>185</v>
+        <v>319</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6649,13 @@
         <v>1462</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6664,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -6679,13 +6679,13 @@
         <v>1462</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>319</v>
+        <v>93</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>316</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6700,13 @@
         <v>672328</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H39" s="7">
         <v>1001</v>
@@ -6715,13 +6715,13 @@
         <v>711585</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M39" s="7">
         <v>1681</v>
@@ -6730,13 +6730,13 @@
         <v>1383913</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6753,13 @@
         <v>718494</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H40" s="7">
         <v>825</v>
@@ -6768,13 +6768,13 @@
         <v>634879</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M40" s="7">
         <v>1457</v>
@@ -6783,13 +6783,13 @@
         <v>1353372</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>255</v>
+        <v>536</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6804,13 @@
         <v>878740</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="H41" s="7">
         <v>1190</v>
@@ -6819,13 +6819,13 @@
         <v>885299</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="M41" s="7">
         <v>1971</v>
@@ -6834,13 +6834,13 @@
         <v>1764039</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6855,13 @@
         <v>911379</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H42" s="7">
         <v>1589</v>
@@ -6870,13 +6870,13 @@
         <v>1050883</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="M42" s="7">
         <v>2548</v>
@@ -6885,13 +6885,13 @@
         <v>1962262</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6906,13 @@
         <v>395068</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>551</v>
+        <v>59</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H43" s="7">
         <v>693</v>
@@ -6921,13 +6921,13 @@
         <v>564757</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="M43" s="7">
         <v>1118</v>
@@ -6936,13 +6936,13 @@
         <v>959825</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6957,13 @@
         <v>190160</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H44" s="7">
         <v>358</v>
@@ -6972,13 +6972,13 @@
         <v>226018</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M44" s="7">
         <v>580</v>
@@ -6987,13 +6987,13 @@
         <v>416178</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7008,13 @@
         <v>143853</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H45" s="7">
         <v>342</v>
@@ -7023,13 +7023,13 @@
         <v>210451</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M45" s="7">
         <v>532</v>
@@ -7038,13 +7038,13 @@
         <v>354304</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7059,13 @@
         <v>57772</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>524</v>
+        <v>161</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="H46" s="7">
         <v>150</v>
@@ -7074,13 +7074,13 @@
         <v>95762</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>573</v>
+        <v>302</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M46" s="7">
         <v>212</v>
@@ -7089,13 +7089,13 @@
         <v>153534</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7110,13 @@
         <v>26671</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
@@ -7125,13 +7125,13 @@
         <v>65569</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>577</v>
+        <v>300</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M47" s="7">
         <v>131</v>
@@ -7140,13 +7140,13 @@
         <v>92240</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>388</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7161,13 @@
         <v>24780</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>182</v>
+        <v>582</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>581</v>
+        <v>168</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>580</v>
+        <v>73</v>
       </c>
       <c r="H48" s="7">
         <v>33</v>
@@ -7176,13 +7176,13 @@
         <v>22238</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M48" s="7">
         <v>63</v>
@@ -7191,13 +7191,13 @@
         <v>47018</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>582</v>
+        <v>178</v>
       </c>
       <c r="P48" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7212,13 @@
         <v>10148</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="H49" s="7">
         <v>18</v>
@@ -7227,13 +7227,13 @@
         <v>10382</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>583</v>
+        <v>323</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M49" s="7">
         <v>29</v>
@@ -7242,13 +7242,13 @@
         <v>20529</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>316</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7263,13 @@
         <v>8578</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H50" s="7">
         <v>16</v>
@@ -7278,13 +7278,13 @@
         <v>10017</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>583</v>
+        <v>323</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M50" s="7">
         <v>24</v>
@@ -7293,13 +7293,13 @@
         <v>18595</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>167</v>
+        <v>583</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,13 +7314,13 @@
         <v>3365642</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H51" s="7">
         <v>5314</v>
@@ -7329,13 +7329,13 @@
         <v>3776254</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M51" s="7">
         <v>8665</v>
@@ -7344,18 +7344,18 @@
         <v>7141896</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q57-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Estudios-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la autopercepción de felicidad</t>
+          <t>Puntuación media de la autopercepción de felicidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>7,16</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 7,53</t>
+          <t>7,2; 7,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,11</t>
+          <t>6,88; 7,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,23</t>
+          <t>7,06; 7,26</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>8,2</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 8,36</t>
+          <t>8,25; 8,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 8,16</t>
+          <t>7,77; 8,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 8,23</t>
+          <t>8,03; 8,3</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 8,36</t>
+          <t>8,2; 8,36</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>8,03</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,07; 8,21</t>
+          <t>8,12; 8,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,92</t>
+          <t>7,69; 7,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 8,04</t>
+          <t>7,94; 8,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q57-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Estudios-trans_orig.xlsx
@@ -639,17 +639,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,37</t>
+          <t>7,11; 7,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,55</t>
+          <t>7,17; 7,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 6,92</t>
+          <t>6,65; 6,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,26</t>
+          <t>7,05; 7,25</t>
         </is>
       </c>
     </row>
@@ -719,12 +719,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 7,82</t>
+          <t>7,68; 7,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,25; 8,54</t>
+          <t>8,26; 8,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 8,15</t>
+          <t>7,73; 8,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,74</t>
+          <t>7,64; 7,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 8,3</t>
+          <t>8,04; 8,33</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 8,16</t>
+          <t>7,93; 8,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 8,43</t>
+          <t>8,19; 8,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,89; 8,11</t>
+          <t>7,88; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,16; 8,35</t>
+          <t>8,17; 8,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 8,11</t>
+          <t>7,95; 8,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 8,36</t>
+          <t>8,21; 8,36</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 8,4</t>
+          <t>8,12; 8,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,17 +894,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,69; 7,93</t>
+          <t>7,72; 7,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,61</t>
+          <t>7,52; 7,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 8,12</t>
+          <t>7,95; 8,12</t>
         </is>
       </c>
     </row>
